--- a/library/analog.xlsx
+++ b/library/analog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\elem_altium_db2\library\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitProjects\elem_altium_db2\library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F776907-58CE-4517-8B81-5944CE9A6699}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E53C541-3E59-45B4-BA30-F500F266ECDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="630" yWindow="480" windowWidth="13335" windowHeight="9150" firstSheet="3" activeTab="7" xr2:uid="{EE2E7F00-6B54-4C0B-98D7-835E87062BAF}"/>
+    <workbookView xWindow="11580" yWindow="0" windowWidth="16575" windowHeight="15600" activeTab="2" xr2:uid="{EE2E7F00-6B54-4C0B-98D7-835E87062BAF}"/>
   </bookViews>
   <sheets>
     <sheet name="ADC" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="238">
   <si>
     <t>Part Number</t>
   </si>
@@ -1367,7 +1367,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="12.75">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>52</v>
       </c>
@@ -1390,7 +1390,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="12.75">
+    <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
         <v>56</v>
       </c>
@@ -1413,7 +1413,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="12.75">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>61</v>
       </c>
@@ -1512,11 +1512,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE4D8C3D-D832-496B-AB92-259D2AD291EC}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:G6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" customWidth="1"/>
+    <col min="3" max="3" width="31.28515625" customWidth="1"/>
+    <col min="4" max="5" width="24.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
@@ -1634,6 +1642,29 @@
       </c>
       <c r="G5" t="s">
         <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>221</v>
+      </c>
+      <c r="B6" t="s">
+        <v>170</v>
+      </c>
+      <c r="C6" t="s">
+        <v>222</v>
+      </c>
+      <c r="D6" t="s">
+        <v>221</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F6" t="s">
+        <v>170</v>
+      </c>
+      <c r="G6" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -1746,7 +1777,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="12.75">
+    <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
         <v>109</v>
       </c>
@@ -2196,7 +2227,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="12.75">
+    <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
         <v>163</v>
       </c>
@@ -2219,7 +2250,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="12.75">
+    <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
         <v>167</v>
       </c>
@@ -2297,7 +2328,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{919936B4-B1A4-46D7-993E-F45D36458108}">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
@@ -2876,7 +2907,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="2" customFormat="1" ht="12.75">
+    <row r="2" spans="1:12" s="2" customFormat="1">
       <c r="A2" s="2" t="s">
         <v>141</v>
       </c>
@@ -2904,7 +2935,7 @@
       <c r="K2"/>
       <c r="L2"/>
     </row>
-    <row r="3" spans="1:12" s="2" customFormat="1" ht="12.75">
+    <row r="3" spans="1:12" s="2" customFormat="1">
       <c r="A3" s="2" t="s">
         <v>137</v>
       </c>
@@ -2932,7 +2963,7 @@
       <c r="K3"/>
       <c r="L3"/>
     </row>
-    <row r="4" spans="1:12" s="2" customFormat="1" ht="12.75">
+    <row r="4" spans="1:12" s="2" customFormat="1">
       <c r="A4" s="2" t="s">
         <v>131</v>
       </c>
@@ -2960,7 +2991,7 @@
       <c r="K4"/>
       <c r="L4"/>
     </row>
-    <row r="5" spans="1:12" ht="12.75">
+    <row r="5" spans="1:12">
       <c r="A5" s="2" t="s">
         <v>142</v>
       </c>
@@ -2983,7 +3014,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="12.75">
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
         <v>153</v>
       </c>
@@ -3006,7 +3037,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="12.75">
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
         <v>148</v>
       </c>
